--- a/test_file2.xlsx
+++ b/test_file2.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="71">
   <si>
     <t>Insurance Policy Info</t>
   </si>
@@ -50,7 +51,184 @@
     <t>Corn</t>
   </si>
   <si>
-    <t>Enterprise Units</t>
+    <t>Optional Units</t>
+  </si>
+  <si>
+    <t>Unit - 28 11N 25W</t>
+  </si>
+  <si>
+    <t>total_acres</t>
+  </si>
+  <si>
+    <t>yield_guarantee</t>
+  </si>
+  <si>
+    <t>mcpi_loss</t>
+  </si>
+  <si>
+    <t>guarantee/acre</t>
+  </si>
+  <si>
+    <t>mpci_yield_guarantee</t>
+  </si>
+  <si>
+    <t>aph</t>
+  </si>
+  <si>
+    <t>APH</t>
+  </si>
+  <si>
+    <t>mcpi_bu_loss/acre</t>
+  </si>
+  <si>
+    <t>MPCI_loss</t>
+  </si>
+  <si>
+    <t>MPCI_bu_loss/acre</t>
+  </si>
+  <si>
+    <t>total_bu_guarantee</t>
+  </si>
+  <si>
+    <t>Actual Yield</t>
+  </si>
+  <si>
+    <t>Field-Zone</t>
+  </si>
+  <si>
+    <t>Actual Production</t>
+  </si>
+  <si>
+    <t>Acres</t>
+  </si>
+  <si>
+    <t>Davis-Davis Irrigated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totals: </t>
+  </si>
+  <si>
+    <t>Unit - 30 12N 24W</t>
+  </si>
+  <si>
+    <t>Keiser-Keiser Irrigated</t>
+  </si>
+  <si>
+    <t>Unit - 31 12N 25W</t>
+  </si>
+  <si>
+    <t>Duis-Duis Irrigated</t>
+  </si>
+  <si>
+    <t>Unit - 14 12N 25W</t>
+  </si>
+  <si>
+    <t>Aden SE/SW-Aden SE/SW Pivots</t>
+  </si>
+  <si>
+    <t>Aden/Stevens-Stevens Irrigated</t>
+  </si>
+  <si>
+    <t>Unit - 26 11N 25W</t>
+  </si>
+  <si>
+    <t>96 Ranch 3 &amp; 4 bottom-3 &amp; 4 Flood</t>
+  </si>
+  <si>
+    <t>96 Ranch 13 &amp; 14-#14 North Half</t>
+  </si>
+  <si>
+    <t>96 Ranch #3 &amp; 4-#3 &amp; #4 Irrigated</t>
+  </si>
+  <si>
+    <t>96 Ranch #16 &amp; 17-#16 &amp; #17 Irrigated</t>
+  </si>
+  <si>
+    <t>96 Ranch #11-#11 Gravity</t>
+  </si>
+  <si>
+    <t>96 Ranch #11-# 11 Irrigated</t>
+  </si>
+  <si>
+    <t>Unit - 1 11N 25W</t>
+  </si>
+  <si>
+    <t>Sitorious-Irrigated West Half</t>
+  </si>
+  <si>
+    <t>Sitorious-Dryland (Irr for ins)</t>
+  </si>
+  <si>
+    <t>Unit - 19 12N 25W</t>
+  </si>
+  <si>
+    <t>D &amp; D Tickle N&amp;S-Tickle N&amp;S Irrigated</t>
+  </si>
+  <si>
+    <t>D &amp; D South Gravity-D&amp;D South Gravity</t>
+  </si>
+  <si>
+    <t>D &amp; D Home-D&amp;D Home Irrigated</t>
+  </si>
+  <si>
+    <t>Unit - 11 11N 25W</t>
+  </si>
+  <si>
+    <t>Home-Gravity</t>
+  </si>
+  <si>
+    <t>Unit - 13 12N 25W</t>
+  </si>
+  <si>
+    <t>Bob's-Bob's Pivot</t>
+  </si>
+  <si>
+    <t>Unit - 18 12N 25W</t>
+  </si>
+  <si>
+    <t>D &amp; D Anderson-Anderson Pivot</t>
+  </si>
+  <si>
+    <t>D &amp; D North Gravity-D &amp; D North Gravity</t>
+  </si>
+  <si>
+    <t>D &amp; D Tickle Home-Tickle Home Irrigated</t>
+  </si>
+  <si>
+    <t>Unit - 4 10N 25W</t>
+  </si>
+  <si>
+    <t>96 Ranch Heller-Pivot</t>
+  </si>
+  <si>
+    <t>Unit - 12 11N 25W</t>
+  </si>
+  <si>
+    <t>Tri V Northeast-Tri V NE Pivot</t>
+  </si>
+  <si>
+    <t>HPP Units</t>
+  </si>
+  <si>
+    <t>mcpi_yield_guarantee</t>
+  </si>
+  <si>
+    <t>covered_bushels</t>
+  </si>
+  <si>
+    <t>modified_aph</t>
+  </si>
+  <si>
+    <t>actual_$_loss</t>
+  </si>
+  <si>
+    <t>loss%</t>
+  </si>
+  <si>
+    <t>potential_bushel_loss</t>
+  </si>
+  <si>
+    <t>potential_$_loss</t>
   </si>
 </sst>
 </file>
@@ -88,7 +266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -111,17 +289,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,16 +673,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:L119"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="5" width="15.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -502,18 +689,3062 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5">
+        <v>147</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>216</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>-12911695.104</v>
+      </c>
+      <c r="K5">
+        <v>-190.11831292517</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8">
+        <v>189.86</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>27947.392</v>
+      </c>
+      <c r="E8">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2">
+        <f>SUM(D8:D8)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <f>SUM(E8:E8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="B14">
+        <v>137</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>198</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>-12241905.984</v>
+      </c>
+      <c r="K14">
+        <v>-193.413372262774</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="D15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="B17">
+        <v>192.57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17">
+        <v>26497.632</v>
+      </c>
+      <c r="E17">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="2">
+        <f>SUM(D17:D17)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <f>SUM(E17:E17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="B23">
+        <v>134</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>200</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>-13670580</v>
+      </c>
+      <c r="K23">
+        <v>-220.820895522388</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="D24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="B26">
+        <v>220</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26">
+        <v>29590</v>
+      </c>
+      <c r="E26">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="2">
+        <f>SUM(D26:D26)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <f>SUM(E26:E26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="B32">
+        <v>449</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>198</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>-42235413.99</v>
+      </c>
+      <c r="K32">
+        <v>-203.605</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="D33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="B35">
+        <v>203.605</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35">
+        <v>62913.945</v>
+      </c>
+      <c r="E35">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="B36">
+        <v>203.605</v>
+      </c>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36">
+        <v>28504.7</v>
+      </c>
+      <c r="E36">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="B37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="2">
+        <f>SUM(D36:D35)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <f>SUM(E36:E35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41" t="s">
+        <v>22</v>
+      </c>
+      <c r="L41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="B42">
+        <v>670</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>200</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>-32889892.728</v>
+      </c>
+      <c r="K42">
+        <v>-106.254095522388</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="D43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="B45">
+        <v>106.72</v>
+      </c>
+      <c r="C45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45">
+        <v>7470.4</v>
+      </c>
+      <c r="E45">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="B46">
+        <v>106.72</v>
+      </c>
+      <c r="C46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46">
+        <v>15687.84</v>
+      </c>
+      <c r="E46">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="B47">
+        <v>106.72</v>
+      </c>
+      <c r="C47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47">
+        <v>22838.08</v>
+      </c>
+      <c r="E47">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="B48">
+        <v>106.72</v>
+      </c>
+      <c r="C48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48">
+        <v>19529.76</v>
+      </c>
+      <c r="E48">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="B49">
+        <v>66.7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49">
+        <v>200.1</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="B50">
+        <v>106.72</v>
+      </c>
+      <c r="C50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50">
+        <v>5464.064</v>
+      </c>
+      <c r="E50">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="B51" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="2">
+        <f>SUM(D50:D45)</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="2">
+        <f>SUM(E50:E45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" t="s">
+        <v>21</v>
+      </c>
+      <c r="K55" t="s">
+        <v>22</v>
+      </c>
+      <c r="L55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="B56">
+        <v>83</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>197</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>-8189559.84</v>
+      </c>
+      <c r="K56">
+        <v>-213.570120481928</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="D57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="B59">
+        <v>210.7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59">
+        <v>17403.82</v>
+      </c>
+      <c r="E59">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="B60">
+        <v>215</v>
+      </c>
+      <c r="C60" t="s">
+        <v>46</v>
+      </c>
+      <c r="D60">
+        <v>322.5</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="B61" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" s="2">
+        <f>SUM(D60:D59)</f>
+        <v>0</v>
+      </c>
+      <c r="E61" s="2">
+        <f>SUM(E60:E59)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65" t="s">
+        <v>19</v>
+      </c>
+      <c r="I65" t="s">
+        <v>20</v>
+      </c>
+      <c r="J65" t="s">
+        <v>21</v>
+      </c>
+      <c r="K65" t="s">
+        <v>22</v>
+      </c>
+      <c r="L65" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="B66">
+        <v>485</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>177</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>-48788863.2</v>
+      </c>
+      <c r="K66">
+        <v>-217.739381443299</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="D67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="B69">
+        <v>220</v>
+      </c>
+      <c r="C69" t="s">
+        <v>48</v>
+      </c>
+      <c r="D69">
+        <v>61793.6</v>
+      </c>
+      <c r="E69">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="B70">
+        <v>200</v>
+      </c>
+      <c r="C70" t="s">
+        <v>49</v>
+      </c>
+      <c r="D70">
+        <v>14770</v>
+      </c>
+      <c r="E70">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="B71">
+        <v>220</v>
+      </c>
+      <c r="C71" t="s">
+        <v>50</v>
+      </c>
+      <c r="D71">
+        <v>29040</v>
+      </c>
+      <c r="E71">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="B72" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" s="2">
+        <f>SUM(D71:D69)</f>
+        <v>0</v>
+      </c>
+      <c r="E72" s="2">
+        <f>SUM(E71:E69)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="B76" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76" t="s">
+        <v>19</v>
+      </c>
+      <c r="I76" t="s">
+        <v>20</v>
+      </c>
+      <c r="J76" t="s">
+        <v>21</v>
+      </c>
+      <c r="K76" t="s">
+        <v>22</v>
+      </c>
+      <c r="L76" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="B77">
+        <v>35</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>199</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>-2965578</v>
+      </c>
+      <c r="K77">
+        <v>-183.4</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="D78" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="B80">
+        <v>183.4</v>
+      </c>
+      <c r="C80" t="s">
+        <v>52</v>
+      </c>
+      <c r="D80">
+        <v>6419</v>
+      </c>
+      <c r="E80">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="B81" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D81" s="2">
+        <f>SUM(D80:D80)</f>
+        <v>0</v>
+      </c>
+      <c r="E81" s="2">
+        <f>SUM(E80:E80)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="B85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" t="s">
+        <v>18</v>
+      </c>
+      <c r="H85" t="s">
+        <v>19</v>
+      </c>
+      <c r="I85" t="s">
+        <v>20</v>
+      </c>
+      <c r="J85" t="s">
+        <v>21</v>
+      </c>
+      <c r="K85" t="s">
+        <v>22</v>
+      </c>
+      <c r="L85" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="B86">
+        <v>155</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>194</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>-14579160.75</v>
+      </c>
+      <c r="K86">
+        <v>-203.591129032258</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="D87" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="B89">
+        <v>204.25</v>
+      </c>
+      <c r="C89" t="s">
+        <v>54</v>
+      </c>
+      <c r="D89">
+        <v>31556.625</v>
+      </c>
+      <c r="E89">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="B90" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D90" s="2">
+        <f>SUM(D89:D89)</f>
+        <v>0</v>
+      </c>
+      <c r="E90" s="2">
+        <f>SUM(E89:E89)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="B94" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" t="s">
+        <v>16</v>
+      </c>
+      <c r="F94" t="s">
+        <v>17</v>
+      </c>
+      <c r="G94" t="s">
+        <v>18</v>
+      </c>
+      <c r="H94" t="s">
+        <v>19</v>
+      </c>
+      <c r="I94" t="s">
+        <v>20</v>
+      </c>
+      <c r="J94" t="s">
+        <v>21</v>
+      </c>
+      <c r="K94" t="s">
+        <v>22</v>
+      </c>
+      <c r="L94" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="B95">
+        <v>304</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>192</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>-29947764</v>
+      </c>
+      <c r="K95">
+        <v>-213.230263157895</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="D96" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="B98">
+        <v>215</v>
+      </c>
+      <c r="C98" t="s">
+        <v>56</v>
+      </c>
+      <c r="D98">
+        <v>27541.5</v>
+      </c>
+      <c r="E98">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="B99">
+        <v>200</v>
+      </c>
+      <c r="C99" t="s">
+        <v>57</v>
+      </c>
+      <c r="D99">
+        <v>10728</v>
+      </c>
+      <c r="E99">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="B100">
+        <v>215</v>
+      </c>
+      <c r="C100" t="s">
+        <v>58</v>
+      </c>
+      <c r="D100">
+        <v>26552.5</v>
+      </c>
+      <c r="E100">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="B101" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D101" s="2">
+        <f>SUM(D100:D98)</f>
+        <v>0</v>
+      </c>
+      <c r="E101" s="2">
+        <f>SUM(E100:E98)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="B105" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" t="s">
+        <v>17</v>
+      </c>
+      <c r="G105" t="s">
+        <v>18</v>
+      </c>
+      <c r="H105" t="s">
+        <v>19</v>
+      </c>
+      <c r="I105" t="s">
+        <v>20</v>
+      </c>
+      <c r="J105" t="s">
+        <v>21</v>
+      </c>
+      <c r="K105" t="s">
+        <v>22</v>
+      </c>
+      <c r="L105" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="B106">
+        <v>143</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>213</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>-11008616.85</v>
+      </c>
+      <c r="K106">
+        <v>-166.630594405594</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="D107" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="B109">
+        <v>166.05</v>
+      </c>
+      <c r="C109" t="s">
+        <v>60</v>
+      </c>
+      <c r="D109">
+        <v>23828.175</v>
+      </c>
+      <c r="E109">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="B110" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D110" s="2">
+        <f>SUM(D109:D109)</f>
+        <v>0</v>
+      </c>
+      <c r="E110" s="2">
+        <f>SUM(E109:E109)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="B114" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114" t="s">
+        <v>15</v>
+      </c>
+      <c r="E114" t="s">
+        <v>16</v>
+      </c>
+      <c r="F114" t="s">
+        <v>17</v>
+      </c>
+      <c r="G114" t="s">
+        <v>18</v>
+      </c>
+      <c r="H114" t="s">
+        <v>19</v>
+      </c>
+      <c r="I114" t="s">
+        <v>20</v>
+      </c>
+      <c r="J114" t="s">
+        <v>21</v>
+      </c>
+      <c r="K114" t="s">
+        <v>22</v>
+      </c>
+      <c r="L114" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="B115">
+        <v>145</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>190</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>-14116739.868</v>
+      </c>
+      <c r="K115">
+        <v>-210.729062068966</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="D116" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="B118">
+        <v>210.7</v>
+      </c>
+      <c r="C118" t="s">
+        <v>62</v>
+      </c>
+      <c r="D118">
+        <v>30555.714</v>
+      </c>
+      <c r="E118">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="B119" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D119" s="2">
+        <f>SUM(D118:D118)</f>
+        <v>0</v>
+      </c>
+      <c r="E119" s="2">
+        <f>SUM(E118:E118)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:B3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K119"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="4" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>147</v>
+      </c>
+      <c r="D5">
+        <v>216</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>216</v>
+      </c>
+      <c r="G5">
+        <v>1757728.896</v>
+      </c>
+      <c r="H5">
+        <v>0.137</v>
+      </c>
+      <c r="I5">
+        <v>99792</v>
+      </c>
+      <c r="J5">
+        <v>29.592</v>
+      </c>
+      <c r="K5">
+        <v>2009711.088</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8">
+        <v>189.86</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>27947.392</v>
+      </c>
+      <c r="E8">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="3">
+        <f>SUM(D8:D8)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <f>SUM(E8:E8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>137</v>
+      </c>
+      <c r="D14">
+        <v>198</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>198</v>
+      </c>
+      <c r="G14">
+        <v>290306.016</v>
+      </c>
+      <c r="H14">
+        <v>0.083</v>
+      </c>
+      <c r="I14">
+        <v>91476</v>
+      </c>
+      <c r="J14">
+        <v>16.434</v>
+      </c>
+      <c r="K14">
+        <v>1040173.596</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="B17">
+        <v>192.57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17">
+        <v>26497.632</v>
+      </c>
+      <c r="E17">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="3">
+        <f>SUM(D17:D17)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <f>SUM(E17:E17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="B22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>134</v>
+      </c>
+      <c r="D23">
+        <v>200</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>200</v>
+      </c>
+      <c r="G23">
+        <v>-1288980</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>92400</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="B26">
+        <v>220</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26">
+        <v>29590</v>
+      </c>
+      <c r="E26">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="3">
+        <f>SUM(D26:D26)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <f>SUM(E26:E26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="B31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>449</v>
+      </c>
+      <c r="D32">
+        <v>198</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>198</v>
+      </c>
+      <c r="G32">
+        <v>-1162689.99</v>
+      </c>
+      <c r="H32">
+        <v>0.053</v>
+      </c>
+      <c r="I32">
+        <v>91476</v>
+      </c>
+      <c r="J32">
+        <v>10.494</v>
+      </c>
+      <c r="K32">
+        <v>2176854.372</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="B34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="B35">
+        <v>203.605</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35">
+        <v>62913.945</v>
+      </c>
+      <c r="E35">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="B36">
+        <v>203.605</v>
+      </c>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36">
+        <v>28504.7</v>
+      </c>
+      <c r="E36">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="B37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="3">
+        <f>SUM(D36:D35)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <f>SUM(E36:E35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="B41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>670</v>
+      </c>
+      <c r="D42">
+        <v>200</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>200</v>
+      </c>
+      <c r="G42">
+        <v>20615364</v>
+      </c>
+      <c r="H42">
+        <v>0.333</v>
+      </c>
+      <c r="I42">
+        <v>92400</v>
+      </c>
+      <c r="J42">
+        <v>66.6</v>
+      </c>
+      <c r="K42">
+        <v>20615364</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="B44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="B45">
+        <v>106.72</v>
+      </c>
+      <c r="C45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45">
+        <v>7470.4</v>
+      </c>
+      <c r="E45">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="B46">
+        <v>106.72</v>
+      </c>
+      <c r="C46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46">
+        <v>15687.84</v>
+      </c>
+      <c r="E46">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="B47">
+        <v>106.72</v>
+      </c>
+      <c r="C47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47">
+        <v>22838.08</v>
+      </c>
+      <c r="E47">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="B48">
+        <v>106.72</v>
+      </c>
+      <c r="C48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48">
+        <v>19529.76</v>
+      </c>
+      <c r="E48">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="B49">
+        <v>66.7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49">
+        <v>200.1</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="B50">
+        <v>106.72</v>
+      </c>
+      <c r="C50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50">
+        <v>5464.064</v>
+      </c>
+      <c r="E50">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="B51" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="3">
+        <f>SUM(D50:D45)</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="3">
+        <f>SUM(E50:E45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="B55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>83</v>
+      </c>
+      <c r="D56">
+        <v>197</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>197</v>
+      </c>
+      <c r="G56">
+        <v>-635397.839999998</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>91014</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="B58" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="B59">
+        <v>210.7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59">
+        <v>17403.82</v>
+      </c>
+      <c r="E59">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="B60">
+        <v>215</v>
+      </c>
+      <c r="C60" t="s">
+        <v>46</v>
+      </c>
+      <c r="D60">
+        <v>322.5</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="B61" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" s="3">
+        <f>SUM(D60:D59)</f>
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <f>SUM(E60:E59)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="B65" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>485</v>
+      </c>
+      <c r="D66">
+        <v>177</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>177</v>
+      </c>
+      <c r="G66">
+        <v>-9128473.2</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>81774</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="B68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="B69">
+        <v>220</v>
+      </c>
+      <c r="C69" t="s">
+        <v>48</v>
+      </c>
+      <c r="D69">
+        <v>61793.6</v>
+      </c>
+      <c r="E69">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="B70">
+        <v>200</v>
+      </c>
+      <c r="C70" t="s">
+        <v>49</v>
+      </c>
+      <c r="D70">
+        <v>14770</v>
+      </c>
+      <c r="E70">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="B71">
+        <v>220</v>
+      </c>
+      <c r="C71" t="s">
+        <v>50</v>
+      </c>
+      <c r="D71">
+        <v>29040</v>
+      </c>
+      <c r="E71">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="B72" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" s="3">
+        <f>SUM(D71:D69)</f>
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
+        <f>SUM(E71:E69)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="B76" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>35</v>
+      </c>
+      <c r="D77">
+        <v>199</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>199</v>
+      </c>
+      <c r="G77">
+        <v>252252</v>
+      </c>
+      <c r="H77">
+        <v>0.083</v>
+      </c>
+      <c r="I77">
+        <v>91938</v>
+      </c>
+      <c r="J77">
+        <v>16.517</v>
+      </c>
+      <c r="K77">
+        <v>267079.89</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="B79" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="B80">
+        <v>183.4</v>
+      </c>
+      <c r="C80" t="s">
+        <v>52</v>
+      </c>
+      <c r="D80">
+        <v>6419</v>
+      </c>
+      <c r="E80">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="B81" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D81" s="3">
+        <f>SUM(D80:D80)</f>
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <f>SUM(E80:E80)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="B85" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>155</v>
+      </c>
+      <c r="D86">
+        <v>194</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>194</v>
+      </c>
+      <c r="G86">
+        <v>-686820.75</v>
+      </c>
+      <c r="H86">
+        <v>0.05</v>
+      </c>
+      <c r="I86">
+        <v>89628</v>
+      </c>
+      <c r="J86">
+        <v>9.7</v>
+      </c>
+      <c r="K86">
+        <v>694617</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="B88" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="B89">
+        <v>204.25</v>
+      </c>
+      <c r="C89" t="s">
+        <v>54</v>
+      </c>
+      <c r="D89">
+        <v>31556.625</v>
+      </c>
+      <c r="E89">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="B90" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D90" s="3">
+        <f>SUM(D89:D89)</f>
+        <v>0</v>
+      </c>
+      <c r="E90" s="3">
+        <f>SUM(E89:E89)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="B94" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>304</v>
+      </c>
+      <c r="D95">
+        <v>192</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>192</v>
+      </c>
+      <c r="G95">
+        <v>-2981748</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>88704</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="B97" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="B98">
+        <v>215</v>
+      </c>
+      <c r="C98" t="s">
+        <v>56</v>
+      </c>
+      <c r="D98">
+        <v>27541.5</v>
+      </c>
+      <c r="E98">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="B99">
+        <v>200</v>
+      </c>
+      <c r="C99" t="s">
+        <v>57</v>
+      </c>
+      <c r="D99">
+        <v>10728</v>
+      </c>
+      <c r="E99">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="B100">
+        <v>215</v>
+      </c>
+      <c r="C100" t="s">
+        <v>58</v>
+      </c>
+      <c r="D100">
+        <v>26552.5</v>
+      </c>
+      <c r="E100">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="B101" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D101" s="3">
+        <f>SUM(D100:D98)</f>
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <f>SUM(E100:E98)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="B105" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>143</v>
+      </c>
+      <c r="D106">
+        <v>213</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>213</v>
+      </c>
+      <c r="G106">
+        <v>2673691.02</v>
+      </c>
+      <c r="H106">
+        <v>0.19</v>
+      </c>
+      <c r="I106">
+        <v>98406</v>
+      </c>
+      <c r="J106">
+        <v>40.47</v>
+      </c>
+      <c r="K106">
+        <v>2673691.02</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="B108" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="B109">
+        <v>166.05</v>
+      </c>
+      <c r="C109" t="s">
+        <v>60</v>
+      </c>
+      <c r="D109">
+        <v>23828.175</v>
+      </c>
+      <c r="E109">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="B110" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D110" s="3">
+        <f>SUM(D109:D109)</f>
+        <v>0</v>
+      </c>
+      <c r="E110" s="3">
+        <f>SUM(E109:E109)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="B114" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>145</v>
+      </c>
+      <c r="D115">
+        <v>190</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>190</v>
+      </c>
+      <c r="G115">
+        <v>-1388639.868</v>
+      </c>
+      <c r="H115">
+        <v>0.02</v>
+      </c>
+      <c r="I115">
+        <v>87780</v>
+      </c>
+      <c r="J115">
+        <v>3.8</v>
+      </c>
+      <c r="K115">
+        <v>254562</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="B117" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="B118">
+        <v>210.7</v>
+      </c>
+      <c r="C118" t="s">
+        <v>62</v>
+      </c>
+      <c r="D118">
+        <v>30555.714</v>
+      </c>
+      <c r="E118">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="B119" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D119" s="3">
+        <f>SUM(D118:D118)</f>
+        <v>0</v>
+      </c>
+      <c r="E119" s="3">
+        <f>SUM(E118:E118)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_file2.xlsx
+++ b/test_file2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="119">
   <si>
     <t>Insurance Policy Info</t>
   </si>
@@ -78,289 +78,301 @@
     <t>Unit - 9 12n 24W</t>
   </si>
   <si>
+    <t>Total Acres</t>
+  </si>
+  <si>
+    <t>APH</t>
+  </si>
+  <si>
+    <t>Yield Guarantee</t>
+  </si>
+  <si>
+    <t>guarantee/acre</t>
+  </si>
+  <si>
+    <t>$931.69</t>
+  </si>
+  <si>
+    <t>Total Bushel Guarantee</t>
+  </si>
+  <si>
+    <t>MPCI Bushel Loss per acre</t>
+  </si>
+  <si>
+    <t>MPCI Loss</t>
+  </si>
+  <si>
+    <t>$834,201.96</t>
+  </si>
+  <si>
+    <t>Field-Zone</t>
+  </si>
+  <si>
+    <t>Acres</t>
+  </si>
+  <si>
+    <t>Actual Production</t>
+  </si>
+  <si>
+    <t>Actual Yield</t>
+  </si>
+  <si>
+    <t>CRP - CRP-Irrigated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totals: </t>
+  </si>
+  <si>
+    <t>Unit - 33 11N 24W</t>
+  </si>
+  <si>
+    <t>$888.46</t>
+  </si>
+  <si>
+    <t>-$1,161,663.75</t>
+  </si>
+  <si>
+    <t>West Lot - West Lot</t>
+  </si>
+  <si>
+    <t>Unit - 29 12N 24W</t>
+  </si>
+  <si>
+    <t>$917.28</t>
+  </si>
+  <si>
+    <t>$398,435.80</t>
+  </si>
+  <si>
+    <t>Friesinberg 80 - Friesinberg 80-Irrigated</t>
+  </si>
+  <si>
+    <t>Unit - 22 12N 24W</t>
+  </si>
+  <si>
+    <t>$998.92</t>
+  </si>
+  <si>
+    <t>$836,937.61</t>
+  </si>
+  <si>
+    <t>Osborne/Fenner - Osborne/Fenner-Dryland</t>
+  </si>
+  <si>
+    <t>Osborne/Fenner - Osborne/Fenner-Irrigated</t>
+  </si>
+  <si>
+    <t>Unit - 9 12N 24W</t>
+  </si>
+  <si>
+    <t>$1,369,966.34</t>
+  </si>
+  <si>
+    <t>Gwen/Fenner - Gwen/Fenner-Irrigated</t>
+  </si>
+  <si>
+    <t>Unit - 5 12N 24W</t>
+  </si>
+  <si>
+    <t>$811.62</t>
+  </si>
+  <si>
+    <t>$317,796.05</t>
+  </si>
+  <si>
+    <t>White's - White's-Pivot</t>
+  </si>
+  <si>
+    <t>White's - White's-Gravity</t>
+  </si>
+  <si>
+    <t>Unit - 8 12N 24W</t>
+  </si>
+  <si>
+    <t>$4,287,064.00</t>
+  </si>
+  <si>
+    <t>Vogt Home Half - Vogt Home Half-Irrigated</t>
+  </si>
+  <si>
+    <t>Unit - 27 12N 24W</t>
+  </si>
+  <si>
+    <t>$984.51</t>
+  </si>
+  <si>
+    <t>$1,707,481.50</t>
+  </si>
+  <si>
+    <t>Rick/Butterbaugh - Rick/Butterbaugh-Dryland</t>
+  </si>
+  <si>
+    <t>Rick/Butterbaugh - Rick/Butterbaugh-Irrigated</t>
+  </si>
+  <si>
+    <t>Unit - 2 12N 24W</t>
+  </si>
+  <si>
+    <t>$830.83</t>
+  </si>
+  <si>
+    <t>-$477,346.40</t>
+  </si>
+  <si>
+    <t>Price Gravity - Price Gravity</t>
+  </si>
+  <si>
+    <t>Unit - 22 11N 24W</t>
+  </si>
+  <si>
+    <t>$850.04</t>
+  </si>
+  <si>
+    <t>-$565,600.95</t>
+  </si>
+  <si>
+    <t>Brad's - Brad's-Dryland</t>
+  </si>
+  <si>
+    <t>Brad's - Brad's-Irrigated</t>
+  </si>
+  <si>
+    <t>Lois 40 - Lois 40</t>
+  </si>
+  <si>
+    <t>Unit - 27 11N 24W</t>
+  </si>
+  <si>
+    <t>$902.87</t>
+  </si>
+  <si>
+    <t>$352,847.40</t>
+  </si>
+  <si>
+    <t>Laird's - Laird's-Irrigated</t>
+  </si>
+  <si>
+    <t>Laird's - Laird's-Dryland</t>
+  </si>
+  <si>
+    <t>Unit - 16 12N 24W</t>
+  </si>
+  <si>
+    <t>$974.91</t>
+  </si>
+  <si>
+    <t>$6,739,811.44</t>
+  </si>
+  <si>
+    <t>McClure Pivot - McClure Pivot-Dryland</t>
+  </si>
+  <si>
+    <t>McClure Pivot - McClure Pivot-Irrigated</t>
+  </si>
+  <si>
+    <t>Roger's - Roger's-Irrigated</t>
+  </si>
+  <si>
+    <t>Roger's - Roger's-Dryland</t>
+  </si>
+  <si>
+    <t>Shackley Pivot - Shackley Pivot-Irrigated</t>
+  </si>
+  <si>
+    <t>Shackley Pivot - Shackley Pivot-Dryland</t>
+  </si>
+  <si>
+    <t>Unit - 4 10N 24W</t>
+  </si>
+  <si>
+    <t>$1,398,241.80</t>
+  </si>
+  <si>
+    <t>Island 1&amp;2 - Island 1&amp;2</t>
+  </si>
+  <si>
+    <t>Island 3 - Island 3</t>
+  </si>
+  <si>
+    <t>Unit - 26 11N 24W</t>
+  </si>
+  <si>
+    <t>$950.89</t>
+  </si>
+  <si>
+    <t>$472,241.30</t>
+  </si>
+  <si>
+    <t>Bartels 80 - Bartels 80-Irrigated</t>
+  </si>
+  <si>
+    <t>HPP Units</t>
+  </si>
+  <si>
+    <t>Modified APH</t>
+  </si>
+  <si>
     <t>MPCI Yield Guarantee</t>
   </si>
   <si>
-    <t>Total Bushel Guarantee</t>
-  </si>
-  <si>
-    <t>guarantee/acre</t>
-  </si>
-  <si>
-    <t>Yield Guarantee</t>
+    <t>Covered Bushels</t>
+  </si>
+  <si>
+    <t>Loss Percent</t>
+  </si>
+  <si>
+    <t>Potential Bushel Loss</t>
+  </si>
+  <si>
+    <t>Potential Dollar Loss</t>
+  </si>
+  <si>
+    <t>Actual Dollar Loss</t>
+  </si>
+  <si>
+    <t>$27,402.50</t>
   </si>
   <si>
     <t>$0.00</t>
   </si>
   <si>
-    <t>APH</t>
-  </si>
-  <si>
-    <t>MPCI Loss</t>
-  </si>
-  <si>
-    <t>MPCI Bushel Loss per acre</t>
-  </si>
-  <si>
-    <t>Total Acres</t>
-  </si>
-  <si>
-    <t>-$12,023,051.04</t>
-  </si>
-  <si>
-    <t>Field-Zone</t>
-  </si>
-  <si>
-    <t>Acres</t>
-  </si>
-  <si>
-    <t>Actual Production</t>
-  </si>
-  <si>
-    <t>Actual Yield</t>
-  </si>
-  <si>
-    <t>CRP - CRP-Irrigated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Totals: </t>
-  </si>
-  <si>
-    <t>Unit - 33 11N 24W</t>
-  </si>
-  <si>
-    <t>-$11,556,675.00</t>
-  </si>
-  <si>
-    <t>West Lot - West Lot</t>
-  </si>
-  <si>
-    <t>Unit - 29 12N 24W</t>
-  </si>
-  <si>
-    <t>-$5,839,051.20</t>
-  </si>
-  <si>
-    <t>Friesinberg 80 - Friesinberg 80-Irrigated</t>
-  </si>
-  <si>
-    <t>Unit - 22 12N 24W</t>
-  </si>
-  <si>
-    <t>-$14,846,106.39</t>
-  </si>
-  <si>
-    <t>Osborne/Fenner - Osborne/Fenner-Dryland</t>
-  </si>
-  <si>
-    <t>Osborne/Fenner - Osborne/Fenner-Irrigated</t>
-  </si>
-  <si>
-    <t>Unit - 9 12N 24W</t>
-  </si>
-  <si>
-    <t>-$11,487,286.66</t>
-  </si>
-  <si>
-    <t>Gwen/Fenner - Gwen/Fenner-Irrigated</t>
-  </si>
-  <si>
-    <t>Unit - 5 12N 24W</t>
-  </si>
-  <si>
-    <t>-$5,282,399.20</t>
-  </si>
-  <si>
-    <t>White's - White's-Pivot</t>
-  </si>
-  <si>
-    <t>White's - White's-Gravity</t>
-  </si>
-  <si>
-    <t>Unit - 8 12N 24W</t>
-  </si>
-  <si>
-    <t>-$19,936,746.00</t>
-  </si>
-  <si>
-    <t>Vogt Home Half - Vogt Home Half-Irrigated</t>
-  </si>
-  <si>
-    <t>Unit - 27 12N 24W</t>
-  </si>
-  <si>
-    <t>-$13,847,816.00</t>
-  </si>
-  <si>
-    <t>Rick/Butterbaugh - Rick/Butterbaugh-Dryland</t>
-  </si>
-  <si>
-    <t>Rick/Butterbaugh - Rick/Butterbaugh-Irrigated</t>
-  </si>
-  <si>
-    <t>Unit - 2 12N 24W</t>
-  </si>
-  <si>
-    <t>-$4,133,009.40</t>
-  </si>
-  <si>
-    <t>Price Gravity - Price Gravity</t>
-  </si>
-  <si>
-    <t>Unit - 22 11N 24W</t>
-  </si>
-  <si>
-    <t>-$17,311,438.20</t>
-  </si>
-  <si>
-    <t>Brad's - Brad's-Dryland</t>
-  </si>
-  <si>
-    <t>Brad's - Brad's-Irrigated</t>
-  </si>
-  <si>
-    <t>Lois 40 - Lois 40</t>
-  </si>
-  <si>
-    <t>Unit - 27 11N 24W</t>
-  </si>
-  <si>
-    <t>-$10,391,305.60</t>
-  </si>
-  <si>
-    <t>Laird's - Laird's-Irrigated</t>
-  </si>
-  <si>
-    <t>Laird's - Laird's-Dryland</t>
-  </si>
-  <si>
-    <t>Unit - 16 12N 24W</t>
-  </si>
-  <si>
-    <t>-$39,568,294.81</t>
-  </si>
-  <si>
-    <t>McClure Pivot - McClure Pivot-Dryland</t>
-  </si>
-  <si>
-    <t>McClure Pivot - McClure Pivot-Irrigated</t>
-  </si>
-  <si>
-    <t>Roger's - Roger's-Irrigated</t>
-  </si>
-  <si>
-    <t>Roger's - Roger's-Dryland</t>
-  </si>
-  <si>
-    <t>Shackley Pivot - Shackley Pivot-Irrigated</t>
-  </si>
-  <si>
-    <t>Shackley Pivot - Shackley Pivot-Dryland</t>
-  </si>
-  <si>
-    <t>Unit - 4 10N 24W</t>
-  </si>
-  <si>
-    <t>-$26,681,015.20</t>
-  </si>
-  <si>
-    <t>Island 1&amp;2 - Island 1&amp;2</t>
-  </si>
-  <si>
-    <t>Island 3 - Island 3</t>
-  </si>
-  <si>
-    <t>Unit - 26 11N 24W</t>
-  </si>
-  <si>
-    <t>-$5,898,755.20</t>
-  </si>
-  <si>
-    <t>Bartels 80 - Bartels 80-Irrigated</t>
-  </si>
-  <si>
-    <t>HPP Units</t>
-  </si>
-  <si>
-    <t>Covered Bushels</t>
-  </si>
-  <si>
-    <t>Potential Dollar Loss</t>
-  </si>
-  <si>
-    <t>$109,109,610.00</t>
-  </si>
-  <si>
-    <t>Potential Bushel Loss</t>
-  </si>
-  <si>
-    <t>Actual Dollar Loss</t>
-  </si>
-  <si>
-    <t>Modified APH</t>
-  </si>
-  <si>
-    <t>Loss Percent</t>
-  </si>
-  <si>
-    <t>-$347,347,678.40</t>
-  </si>
-  <si>
-    <t>$104,104,525.00</t>
-  </si>
-  <si>
-    <t>-$2,644,200.00</t>
-  </si>
-  <si>
-    <t>$107,107,915.00</t>
-  </si>
-  <si>
-    <t>-$176,176,732.00</t>
-  </si>
-  <si>
-    <t>$117,117,520.00</t>
-  </si>
-  <si>
-    <t>-$656,656,535.65</t>
-  </si>
-  <si>
-    <t>$95,485.00</t>
-  </si>
-  <si>
-    <t>-$210,210,067.00</t>
-  </si>
-  <si>
-    <t>$115,115,825.00</t>
-  </si>
-  <si>
-    <t>$97,745.00</t>
-  </si>
-  <si>
-    <t>-$1,018,469.00</t>
-  </si>
-  <si>
-    <t>$100,100,005.00</t>
-  </si>
-  <si>
-    <t>-$2,579,112.00</t>
-  </si>
-  <si>
-    <t>$106,106,220.00</t>
-  </si>
-  <si>
-    <t>-$733,733,596.00</t>
-  </si>
-  <si>
-    <t>$114,114,695.00</t>
-  </si>
-  <si>
-    <t>-$1,304,472.00</t>
-  </si>
-  <si>
-    <t>$111,111,870.00</t>
-  </si>
-  <si>
-    <t>-$96,502.00</t>
+    <t>$26,131.25</t>
+  </si>
+  <si>
+    <t>-$1,421,257.50</t>
+  </si>
+  <si>
+    <t>$26,978.75</t>
+  </si>
+  <si>
+    <t>$29,380.00</t>
+  </si>
+  <si>
+    <t>$23,871.25</t>
+  </si>
+  <si>
+    <t>$28,956.25</t>
+  </si>
+  <si>
+    <t>$24,436.25</t>
+  </si>
+  <si>
+    <t>-$588,391.00</t>
+  </si>
+  <si>
+    <t>$25,001.25</t>
+  </si>
+  <si>
+    <t>-$609,013.50</t>
+  </si>
+  <si>
+    <t>$26,555.00</t>
+  </si>
+  <si>
+    <t>$28,673.75</t>
+  </si>
+  <si>
+    <t>$27,967.50</t>
   </si>
 </sst>
 </file>
@@ -874,16 +886,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="B5">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
         <v>24</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -896,41 +908,35 @@
       <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8">
-        <v>194</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8">
-        <v>-198.46</v>
-      </c>
-      <c r="E8">
-        <v>138</v>
+        <v>22756.2</v>
+      </c>
+      <c r="C8">
+        <v>13.77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12">
         <v>138</v>
@@ -944,7 +950,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C12:C12)</f>
@@ -961,7 +967,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -980,16 +986,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="B18">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+        <v>185</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1002,36 +1008,30 @@
       <c r="D20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="B21">
-        <v>185</v>
-      </c>
-      <c r="C21" t="s">
+        <v>18398.25</v>
+      </c>
+      <c r="C21">
+        <v>-22.62</v>
+      </c>
+      <c r="D21" t="s">
         <v>37</v>
-      </c>
-      <c r="D21">
-        <v>-225</v>
-      </c>
-      <c r="E21">
-        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="B24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1050,7 +1050,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="B26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="2">
         <f>SUM(C25:C25)</f>
@@ -1086,16 +1086,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="B31">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
+        <v>191</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1108,41 +1108,35 @@
       <c r="D33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="34" spans="1:5">
       <c r="B34">
-        <v>191</v>
-      </c>
-      <c r="C34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34">
-        <v>-195.6</v>
-      </c>
-      <c r="E34">
-        <v>68</v>
+        <v>11039.8</v>
+      </c>
+      <c r="C34">
+        <v>13.35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="B37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="B38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C38">
         <v>68</v>
@@ -1156,7 +1150,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="B39" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C39" s="2">
         <f>SUM(C38:C38)</f>
@@ -1173,7 +1167,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1192,16 +1186,16 @@
     </row>
     <row r="44" spans="1:5">
       <c r="B44">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
+        <v>208</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1214,41 +1208,35 @@
       <c r="D46" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="47" spans="1:5">
       <c r="B47">
-        <v>208</v>
-      </c>
-      <c r="C47" t="s">
-        <v>43</v>
-      </c>
-      <c r="D47">
-        <v>-215.4</v>
-      </c>
-      <c r="E47">
-        <v>157</v>
+        <v>27757.6</v>
+      </c>
+      <c r="C47">
+        <v>12.14</v>
+      </c>
+      <c r="D47" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="B50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="B51" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1262,7 +1250,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="B52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C52">
         <v>152</v>
@@ -1276,7 +1264,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="B53" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C53" s="2">
         <f>SUM(C52:C51)</f>
@@ -1293,7 +1281,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1312,16 +1300,16 @@
     </row>
     <row r="58" spans="1:5">
       <c r="B58">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
         <v>24</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1334,41 +1322,35 @@
       <c r="D60" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="61" spans="1:5">
       <c r="B61">
-        <v>194</v>
-      </c>
-      <c r="C61" t="s">
-        <v>47</v>
-      </c>
-      <c r="D61">
-        <v>-189.62</v>
-      </c>
-      <c r="E61">
-        <v>138</v>
+        <v>22756.2</v>
+      </c>
+      <c r="C61">
+        <v>22.61</v>
+      </c>
+      <c r="D61" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="B64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="B65" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C65">
         <v>138</v>
@@ -1382,7 +1364,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="B66" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C66" s="2">
         <f>SUM(C65:C65)</f>
@@ -1399,7 +1381,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1418,16 +1400,16 @@
     </row>
     <row r="71" spans="1:5">
       <c r="B71">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71" t="s">
-        <v>24</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
+        <v>169</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1440,41 +1422,35 @@
       <c r="D73" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="74" spans="1:5">
       <c r="B74">
-        <v>169</v>
-      </c>
-      <c r="C74" t="s">
-        <v>50</v>
-      </c>
-      <c r="D74">
-        <v>-174.39</v>
-      </c>
-      <c r="E74">
-        <v>69</v>
+        <v>9911.85</v>
+      </c>
+      <c r="C74">
+        <v>10.49</v>
+      </c>
+      <c r="D74" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="B77" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="B78" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C78">
         <v>54</v>
@@ -1488,7 +1464,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="B79" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C79">
         <v>15</v>
@@ -1502,7 +1478,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="B80" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C80" s="2">
         <f>SUM(C79:C78)</f>
@@ -1519,7 +1495,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1538,16 +1514,16 @@
     </row>
     <row r="85" spans="1:5">
       <c r="B85">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85" t="s">
+        <v>194</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85" t="s">
         <v>24</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1560,41 +1536,35 @@
       <c r="D87" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="88" spans="1:5">
       <c r="B88">
-        <v>194</v>
-      </c>
-      <c r="C88" t="s">
-        <v>54</v>
-      </c>
-      <c r="D88">
-        <v>-174.67</v>
-      </c>
-      <c r="E88">
-        <v>260</v>
+        <v>42874</v>
+      </c>
+      <c r="C88">
+        <v>37.56</v>
+      </c>
+      <c r="D88" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="B91" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="B92" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C92">
         <v>260</v>
@@ -1608,7 +1578,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="B93" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C93" s="2">
         <f>SUM(C92:C92)</f>
@@ -1625,7 +1595,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -1644,16 +1614,16 @@
     </row>
     <row r="98" spans="1:5">
       <c r="B98">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="C98">
-        <v>0</v>
-      </c>
-      <c r="D98" t="s">
-        <v>24</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -1666,41 +1636,35 @@
       <c r="D100" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="101" spans="1:5">
       <c r="B101">
-        <v>205</v>
-      </c>
-      <c r="C101" t="s">
-        <v>57</v>
-      </c>
-      <c r="D101">
-        <v>-199.65</v>
-      </c>
-      <c r="E101">
-        <v>158</v>
+        <v>27531.5</v>
+      </c>
+      <c r="C101">
+        <v>24.62</v>
+      </c>
+      <c r="D101" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="B104" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="B105" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C105">
         <v>6</v>
@@ -1714,7 +1678,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="B106" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C106">
         <v>152</v>
@@ -1728,7 +1692,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="B107" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C107" s="2">
         <f>SUM(C106:C105)</f>
@@ -1745,7 +1709,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -1764,16 +1728,16 @@
     </row>
     <row r="112" spans="1:5">
       <c r="B112">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C112">
-        <v>0</v>
-      </c>
-      <c r="D112" t="s">
-        <v>24</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
+        <v>173</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -1786,41 +1750,35 @@
       <c r="D114" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="115" spans="1:5">
       <c r="B115">
-        <v>173</v>
-      </c>
-      <c r="C115" t="s">
-        <v>61</v>
-      </c>
-      <c r="D115">
-        <v>-213.97</v>
-      </c>
-      <c r="E115">
-        <v>44</v>
+        <v>6470.2</v>
+      </c>
+      <c r="C115">
+        <v>-24.71</v>
+      </c>
+      <c r="D115" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="B118" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="D118" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="E118" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="B119" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C119">
         <v>44</v>
@@ -1834,7 +1792,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="B120" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C120" s="2">
         <f>SUM(C119:C119)</f>
@@ -1851,7 +1809,7 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -1870,16 +1828,16 @@
     </row>
     <row r="125" spans="1:5">
       <c r="B125">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="C125">
-        <v>0</v>
-      </c>
-      <c r="D125" t="s">
-        <v>24</v>
-      </c>
-      <c r="E125">
-        <v>0</v>
+        <v>177</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -1892,41 +1850,35 @@
       <c r="D127" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E127" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="128" spans="1:5">
       <c r="B128">
-        <v>177</v>
-      </c>
-      <c r="C128" t="s">
-        <v>64</v>
-      </c>
-      <c r="D128">
-        <v>-200.17</v>
-      </c>
-      <c r="E128">
-        <v>197</v>
+        <v>29638.65</v>
+      </c>
+      <c r="C128">
+        <v>-6.54</v>
+      </c>
+      <c r="D128" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="B131" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="E131" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="B132" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C132">
         <v>7</v>
@@ -1940,7 +1892,7 @@
     </row>
     <row r="133" spans="1:5">
       <c r="B133" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C133">
         <v>153</v>
@@ -1954,7 +1906,7 @@
     </row>
     <row r="134" spans="1:5">
       <c r="B134" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C134">
         <v>37</v>
@@ -1968,7 +1920,7 @@
     </row>
     <row r="135" spans="1:5">
       <c r="B135" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C135" s="2">
         <f>SUM(C134:C132)</f>
@@ -1985,7 +1937,7 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2004,16 +1956,16 @@
     </row>
     <row r="140" spans="1:5">
       <c r="B140">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="C140">
-        <v>0</v>
-      </c>
-      <c r="D140" t="s">
-        <v>24</v>
-      </c>
-      <c r="E140">
-        <v>0</v>
+        <v>188</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2026,41 +1978,35 @@
       <c r="D142" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E142" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="143" spans="1:5">
       <c r="B143">
-        <v>188</v>
-      </c>
-      <c r="C143" t="s">
-        <v>69</v>
-      </c>
-      <c r="D143">
-        <v>-198.91</v>
-      </c>
-      <c r="E143">
-        <v>119</v>
+        <v>19016.2</v>
+      </c>
+      <c r="C143">
+        <v>6.75</v>
+      </c>
+      <c r="D143" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="B146" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="E146" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="B147" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C147">
         <v>112</v>
@@ -2074,7 +2020,7 @@
     </row>
     <row r="148" spans="1:5">
       <c r="B148" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C148">
         <v>7</v>
@@ -2088,7 +2034,7 @@
     </row>
     <row r="149" spans="1:5">
       <c r="B149" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C149" s="2">
         <f>SUM(C148:C147)</f>
@@ -2105,7 +2051,7 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2124,16 +2070,16 @@
     </row>
     <row r="154" spans="1:5">
       <c r="B154">
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="C154">
-        <v>0</v>
-      </c>
-      <c r="D154" t="s">
-        <v>24</v>
-      </c>
-      <c r="E154">
-        <v>0</v>
+        <v>203</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -2146,41 +2092,35 @@
       <c r="D156" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E156" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="157" spans="1:5">
       <c r="B157">
-        <v>203</v>
-      </c>
-      <c r="C157" t="s">
-        <v>73</v>
-      </c>
-      <c r="D157">
-        <v>-189.75</v>
-      </c>
-      <c r="E157">
-        <v>475</v>
+        <v>81961.25</v>
+      </c>
+      <c r="C157">
+        <v>32.32</v>
+      </c>
+      <c r="D157" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="B160" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="D160" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="E160" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="B161" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C161">
         <v>6</v>
@@ -2194,7 +2134,7 @@
     </row>
     <row r="162" spans="1:5">
       <c r="B162" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C162">
         <v>152</v>
@@ -2208,7 +2148,7 @@
     </row>
     <row r="163" spans="1:5">
       <c r="B163" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C163">
         <v>155</v>
@@ -2222,7 +2162,7 @@
     </row>
     <row r="164" spans="1:5">
       <c r="B164" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C164">
         <v>4</v>
@@ -2236,7 +2176,7 @@
     </row>
     <row r="165" spans="1:5">
       <c r="B165" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C165">
         <v>153</v>
@@ -2250,7 +2190,7 @@
     </row>
     <row r="166" spans="1:5">
       <c r="B166" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C166">
         <v>5</v>
@@ -2264,7 +2204,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="B167" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C167" s="2">
         <f>SUM(C166:C161)</f>
@@ -2281,7 +2221,7 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -2300,16 +2240,16 @@
     </row>
     <row r="172" spans="1:5">
       <c r="B172">
-        <v>0</v>
+        <v>311</v>
       </c>
       <c r="C172">
-        <v>0</v>
-      </c>
-      <c r="D172" t="s">
-        <v>24</v>
-      </c>
-      <c r="E172">
-        <v>0</v>
+        <v>188</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -2322,41 +2262,35 @@
       <c r="D174" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E174" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="175" spans="1:5">
       <c r="B175">
-        <v>188</v>
-      </c>
-      <c r="C175" t="s">
-        <v>81</v>
-      </c>
-      <c r="D175">
-        <v>-195.42</v>
-      </c>
-      <c r="E175">
-        <v>311</v>
+        <v>49697.8</v>
+      </c>
+      <c r="C175">
+        <v>10.24</v>
+      </c>
+      <c r="D175" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="B178" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="D178" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="E178" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="B179" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C179">
         <v>177</v>
@@ -2370,7 +2304,7 @@
     </row>
     <row r="180" spans="1:5">
       <c r="B180" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C180">
         <v>134</v>
@@ -2384,7 +2318,7 @@
     </row>
     <row r="181" spans="1:5">
       <c r="B181" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C181" s="2">
         <f>SUM(C180:C179)</f>
@@ -2401,7 +2335,7 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -2420,16 +2354,16 @@
     </row>
     <row r="186" spans="1:5">
       <c r="B186">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C186">
-        <v>0</v>
-      </c>
-      <c r="D186" t="s">
-        <v>24</v>
-      </c>
-      <c r="E186">
-        <v>0</v>
+        <v>198</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -2442,41 +2376,35 @@
       <c r="D188" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E188" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="189" spans="1:5">
       <c r="B189">
-        <v>198</v>
-      </c>
-      <c r="C189" t="s">
-        <v>85</v>
-      </c>
-      <c r="D189">
-        <v>-200.55</v>
-      </c>
-      <c r="E189">
-        <v>67</v>
+        <v>11276.1</v>
+      </c>
+      <c r="C189">
+        <v>16.06</v>
+      </c>
+      <c r="D189" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="B192" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="D192" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="E192" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="193" spans="2:5">
       <c r="B193" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C193">
         <v>67</v>
@@ -2490,7 +2418,7 @@
     </row>
     <row r="194" spans="2:5">
       <c r="B194" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C194" s="2">
         <f>SUM(C193:C193)</f>
@@ -2527,7 +2455,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2545,80 +2473,80 @@
         <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>90</v>
+        <v>138</v>
+      </c>
+      <c r="C5">
+        <v>213.4</v>
       </c>
       <c r="D5">
-        <v>194</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
+        <v>164.9</v>
+      </c>
+      <c r="E5">
+        <v>48.5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="1" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>95</v>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>194</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>138</v>
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12">
         <v>138</v>
@@ -2632,7 +2560,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C12:C12)</f>
@@ -2649,7 +2577,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2657,75 +2585,75 @@
         <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>96</v>
+        <v>117</v>
+      </c>
+      <c r="C18">
+        <v>203.5</v>
       </c>
       <c r="D18">
-        <v>185</v>
-      </c>
-      <c r="E18" t="s">
-        <v>24</v>
+        <v>157.25</v>
+      </c>
+      <c r="E18">
+        <v>46.25</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="B20" s="1" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
-        <v>97</v>
+      <c r="B21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>185</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>117</v>
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="B24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2744,7 +2672,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="B26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="2">
         <f>SUM(C25:C25)</f>
@@ -2769,80 +2697,80 @@
         <v>20</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
-        <v>98</v>
+        <v>68</v>
+      </c>
+      <c r="C31">
+        <v>210.1</v>
       </c>
       <c r="D31">
-        <v>191</v>
-      </c>
-      <c r="E31" t="s">
-        <v>24</v>
+        <v>162.35</v>
+      </c>
+      <c r="E31">
+        <v>47.75</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="B33" s="1" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s">
-        <v>99</v>
+      <c r="B34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>191</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>68</v>
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="B37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="B38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C38">
         <v>68</v>
@@ -2856,7 +2784,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="B39" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C39" s="2">
         <f>SUM(C38:C38)</f>
@@ -2873,7 +2801,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2881,80 +2809,80 @@
         <v>20</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44" t="s">
-        <v>100</v>
+        <v>157</v>
+      </c>
+      <c r="C44">
+        <v>228.8</v>
       </c>
       <c r="D44">
-        <v>208</v>
-      </c>
-      <c r="E44" t="s">
-        <v>24</v>
+        <v>176.8</v>
+      </c>
+      <c r="E44">
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="B46" s="1" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47" t="s">
-        <v>101</v>
+      <c r="B47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>208</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>157</v>
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>105</v>
+      </c>
+      <c r="F47" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="B50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="B51" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -2968,7 +2896,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="B52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C52">
         <v>152</v>
@@ -2982,7 +2910,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="B53" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C53" s="2">
         <f>SUM(C52:C51)</f>
@@ -2999,7 +2927,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3007,80 +2935,80 @@
         <v>20</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58" t="s">
-        <v>90</v>
+        <v>138</v>
+      </c>
+      <c r="C58">
+        <v>213.4</v>
       </c>
       <c r="D58">
-        <v>194</v>
-      </c>
-      <c r="E58" t="s">
-        <v>24</v>
+        <v>164.9</v>
+      </c>
+      <c r="E58">
+        <v>48.5</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="B60" s="1" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61" t="s">
-        <v>24</v>
+      <c r="B61" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>194</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>138</v>
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>105</v>
+      </c>
+      <c r="F61" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="B64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="B65" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C65">
         <v>138</v>
@@ -3094,7 +3022,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="B66" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C66" s="2">
         <f>SUM(C65:C65)</f>
@@ -3111,7 +3039,7 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3119,80 +3047,80 @@
         <v>20</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="B71">
-        <v>0</v>
-      </c>
-      <c r="C71" t="s">
-        <v>102</v>
+        <v>69</v>
+      </c>
+      <c r="C71">
+        <v>185.9</v>
       </c>
       <c r="D71">
-        <v>169</v>
-      </c>
-      <c r="E71" t="s">
-        <v>24</v>
+        <v>143.65</v>
+      </c>
+      <c r="E71">
+        <v>42.25</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="B73" s="1" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="B74">
-        <v>0</v>
-      </c>
-      <c r="C74" t="s">
-        <v>103</v>
+      <c r="B74" t="s">
+        <v>110</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>169</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>69</v>
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>105</v>
+      </c>
+      <c r="F74" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="B77" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="B78" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C78">
         <v>54</v>
@@ -3206,7 +3134,7 @@
     </row>
     <row r="79" spans="1:6">
       <c r="B79" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C79">
         <v>15</v>
@@ -3220,7 +3148,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="B80" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C80" s="2">
         <f>SUM(C79:C78)</f>
@@ -3237,7 +3165,7 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3245,80 +3173,80 @@
         <v>20</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="B85">
-        <v>0</v>
-      </c>
-      <c r="C85" t="s">
-        <v>90</v>
+        <v>260</v>
+      </c>
+      <c r="C85">
+        <v>213.4</v>
       </c>
       <c r="D85">
-        <v>194</v>
-      </c>
-      <c r="E85" t="s">
-        <v>24</v>
+        <v>164.9</v>
+      </c>
+      <c r="E85">
+        <v>48.5</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="B87" s="1" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="B88">
-        <v>0</v>
-      </c>
-      <c r="C88" t="s">
-        <v>24</v>
+      <c r="B88" t="s">
+        <v>104</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>194</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>260</v>
+        <v>0</v>
+      </c>
+      <c r="E88" t="s">
+        <v>105</v>
+      </c>
+      <c r="F88" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="B91" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="B92" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C92">
         <v>260</v>
@@ -3332,7 +3260,7 @@
     </row>
     <row r="93" spans="1:6">
       <c r="B93" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C93" s="2">
         <f>SUM(C92:C92)</f>
@@ -3349,7 +3277,7 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3357,80 +3285,80 @@
         <v>20</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="B98">
-        <v>0</v>
-      </c>
-      <c r="C98" t="s">
-        <v>104</v>
+        <v>158</v>
+      </c>
+      <c r="C98">
+        <v>225.5</v>
       </c>
       <c r="D98">
-        <v>205</v>
-      </c>
-      <c r="E98" t="s">
-        <v>24</v>
+        <v>174.25</v>
+      </c>
+      <c r="E98">
+        <v>51.25</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="B100" s="1" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="B101">
-        <v>0</v>
-      </c>
-      <c r="C101" t="s">
-        <v>24</v>
+      <c r="B101" t="s">
+        <v>111</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>205</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101">
-        <v>158</v>
+        <v>0</v>
+      </c>
+      <c r="E101" t="s">
+        <v>105</v>
+      </c>
+      <c r="F101" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="B104" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="B105" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C105">
         <v>6</v>
@@ -3444,7 +3372,7 @@
     </row>
     <row r="106" spans="1:6">
       <c r="B106" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C106">
         <v>152</v>
@@ -3458,7 +3386,7 @@
     </row>
     <row r="107" spans="1:6">
       <c r="B107" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C107" s="2">
         <f>SUM(C106:C105)</f>
@@ -3475,7 +3403,7 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3483,80 +3411,80 @@
         <v>20</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="B112">
-        <v>0</v>
-      </c>
-      <c r="C112" t="s">
-        <v>105</v>
+        <v>44</v>
+      </c>
+      <c r="C112">
+        <v>190.3</v>
       </c>
       <c r="D112">
-        <v>173</v>
-      </c>
-      <c r="E112" t="s">
-        <v>24</v>
+        <v>147.05</v>
+      </c>
+      <c r="E112">
+        <v>43.25</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="B114" s="1" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="B115">
-        <v>0</v>
-      </c>
-      <c r="C115" t="s">
-        <v>106</v>
+      <c r="B115" t="s">
+        <v>112</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>173</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115">
-        <v>44</v>
+        <v>0</v>
+      </c>
+      <c r="E115" t="s">
+        <v>105</v>
+      </c>
+      <c r="F115" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="B118" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="D118" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="E118" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="B119" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C119">
         <v>44</v>
@@ -3570,7 +3498,7 @@
     </row>
     <row r="120" spans="1:6">
       <c r="B120" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C120" s="2">
         <f>SUM(C119:C119)</f>
@@ -3587,7 +3515,7 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3595,80 +3523,80 @@
         <v>20</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="B125">
-        <v>0</v>
-      </c>
-      <c r="C125" t="s">
-        <v>107</v>
+        <v>197</v>
+      </c>
+      <c r="C125">
+        <v>194.7</v>
       </c>
       <c r="D125">
-        <v>177</v>
-      </c>
-      <c r="E125" t="s">
-        <v>24</v>
+        <v>150.45</v>
+      </c>
+      <c r="E125">
+        <v>44.25</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="B127" s="1" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
     </row>
     <row r="128" spans="1:6">
-      <c r="B128">
-        <v>0</v>
-      </c>
-      <c r="C128" t="s">
-        <v>108</v>
+      <c r="B128" t="s">
+        <v>114</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
       </c>
       <c r="D128">
-        <v>177</v>
-      </c>
-      <c r="E128">
-        <v>0</v>
-      </c>
-      <c r="F128">
-        <v>197</v>
+        <v>0</v>
+      </c>
+      <c r="E128" t="s">
+        <v>105</v>
+      </c>
+      <c r="F128" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="B131" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="E131" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="B132" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C132">
         <v>7</v>
@@ -3682,7 +3610,7 @@
     </row>
     <row r="133" spans="1:6">
       <c r="B133" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C133">
         <v>153</v>
@@ -3696,7 +3624,7 @@
     </row>
     <row r="134" spans="1:6">
       <c r="B134" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C134">
         <v>37</v>
@@ -3710,7 +3638,7 @@
     </row>
     <row r="135" spans="1:6">
       <c r="B135" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C135" s="2">
         <f>SUM(C134:C132)</f>
@@ -3727,7 +3655,7 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3735,80 +3663,80 @@
         <v>20</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="B140">
-        <v>0</v>
-      </c>
-      <c r="C140" t="s">
-        <v>109</v>
+        <v>119</v>
+      </c>
+      <c r="C140">
+        <v>206.8</v>
       </c>
       <c r="D140">
-        <v>188</v>
-      </c>
-      <c r="E140" t="s">
-        <v>24</v>
+        <v>159.8</v>
+      </c>
+      <c r="E140">
+        <v>47</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="B142" s="1" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="B143">
-        <v>0</v>
-      </c>
-      <c r="C143" t="s">
-        <v>110</v>
+      <c r="B143" t="s">
+        <v>116</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
       </c>
       <c r="D143">
-        <v>188</v>
-      </c>
-      <c r="E143">
-        <v>0</v>
-      </c>
-      <c r="F143">
-        <v>119</v>
+        <v>0</v>
+      </c>
+      <c r="E143" t="s">
+        <v>105</v>
+      </c>
+      <c r="F143" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="B146" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="E146" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="B147" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C147">
         <v>112</v>
@@ -3822,7 +3750,7 @@
     </row>
     <row r="148" spans="1:6">
       <c r="B148" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C148">
         <v>7</v>
@@ -3836,7 +3764,7 @@
     </row>
     <row r="149" spans="1:6">
       <c r="B149" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C149" s="2">
         <f>SUM(C148:C147)</f>
@@ -3853,7 +3781,7 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3861,80 +3789,80 @@
         <v>20</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="B154">
-        <v>0</v>
-      </c>
-      <c r="C154" t="s">
-        <v>111</v>
+        <v>475</v>
+      </c>
+      <c r="C154">
+        <v>223.3</v>
       </c>
       <c r="D154">
-        <v>203</v>
-      </c>
-      <c r="E154" t="s">
-        <v>24</v>
+        <v>172.55</v>
+      </c>
+      <c r="E154">
+        <v>50.75</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="B156" s="1" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
     </row>
     <row r="157" spans="1:6">
-      <c r="B157">
-        <v>0</v>
-      </c>
-      <c r="C157" t="s">
-        <v>24</v>
+      <c r="B157" t="s">
+        <v>117</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
       </c>
       <c r="D157">
-        <v>203</v>
-      </c>
-      <c r="E157">
-        <v>0</v>
-      </c>
-      <c r="F157">
-        <v>475</v>
+        <v>0</v>
+      </c>
+      <c r="E157" t="s">
+        <v>105</v>
+      </c>
+      <c r="F157" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="B160" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="D160" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="E160" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="B161" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C161">
         <v>6</v>
@@ -3948,7 +3876,7 @@
     </row>
     <row r="162" spans="1:6">
       <c r="B162" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C162">
         <v>152</v>
@@ -3962,7 +3890,7 @@
     </row>
     <row r="163" spans="1:6">
       <c r="B163" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C163">
         <v>155</v>
@@ -3976,7 +3904,7 @@
     </row>
     <row r="164" spans="1:6">
       <c r="B164" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C164">
         <v>4</v>
@@ -3990,7 +3918,7 @@
     </row>
     <row r="165" spans="1:6">
       <c r="B165" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C165">
         <v>153</v>
@@ -4004,7 +3932,7 @@
     </row>
     <row r="166" spans="1:6">
       <c r="B166" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C166">
         <v>5</v>
@@ -4018,7 +3946,7 @@
     </row>
     <row r="167" spans="1:6">
       <c r="B167" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C167" s="2">
         <f>SUM(C166:C161)</f>
@@ -4035,7 +3963,7 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4043,80 +3971,80 @@
         <v>20</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="B172">
-        <v>0</v>
-      </c>
-      <c r="C172" t="s">
-        <v>109</v>
+        <v>311</v>
+      </c>
+      <c r="C172">
+        <v>206.8</v>
       </c>
       <c r="D172">
-        <v>188</v>
-      </c>
-      <c r="E172" t="s">
-        <v>24</v>
+        <v>159.8</v>
+      </c>
+      <c r="E172">
+        <v>47</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="B174" s="1" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
     </row>
     <row r="175" spans="1:6">
-      <c r="B175">
-        <v>0</v>
-      </c>
-      <c r="C175" t="s">
-        <v>112</v>
+      <c r="B175" t="s">
+        <v>116</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
       </c>
       <c r="D175">
-        <v>188</v>
-      </c>
-      <c r="E175">
-        <v>0</v>
-      </c>
-      <c r="F175">
-        <v>311</v>
+        <v>0</v>
+      </c>
+      <c r="E175" t="s">
+        <v>105</v>
+      </c>
+      <c r="F175" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="B178" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="D178" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="E178" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="B179" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C179">
         <v>177</v>
@@ -4130,7 +4058,7 @@
     </row>
     <row r="180" spans="1:6">
       <c r="B180" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C180">
         <v>134</v>
@@ -4144,7 +4072,7 @@
     </row>
     <row r="181" spans="1:6">
       <c r="B181" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C181" s="2">
         <f>SUM(C180:C179)</f>
@@ -4161,7 +4089,7 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4169,80 +4097,80 @@
         <v>20</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="B186">
-        <v>0</v>
-      </c>
-      <c r="C186" t="s">
-        <v>113</v>
+        <v>67</v>
+      </c>
+      <c r="C186">
+        <v>217.8</v>
       </c>
       <c r="D186">
-        <v>198</v>
-      </c>
-      <c r="E186" t="s">
-        <v>24</v>
+        <v>168.3</v>
+      </c>
+      <c r="E186">
+        <v>49.5</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="B188" s="1" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
     </row>
     <row r="189" spans="1:6">
-      <c r="B189">
-        <v>0</v>
-      </c>
-      <c r="C189" t="s">
-        <v>114</v>
+      <c r="B189" t="s">
+        <v>118</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
       </c>
       <c r="D189">
-        <v>198</v>
-      </c>
-      <c r="E189">
-        <v>0</v>
-      </c>
-      <c r="F189">
-        <v>67</v>
+        <v>0</v>
+      </c>
+      <c r="E189" t="s">
+        <v>105</v>
+      </c>
+      <c r="F189" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="B192" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="D192" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="E192" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="193" spans="2:5">
       <c r="B193" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C193">
         <v>67</v>
@@ -4256,7 +4184,7 @@
     </row>
     <row r="194" spans="2:5">
       <c r="B194" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C194" s="2">
         <f>SUM(C193:C193)</f>

--- a/test_file2.xlsx
+++ b/test_file2.xlsx
@@ -419,13 +419,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -858,8 +861,9 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5">
-        <v>84.1</v>
+      <c r="B5" s="2">
+        <f>SUM(C12,C13)</f>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>197</v>
@@ -911,7 +915,7 @@
       <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>82.6</v>
       </c>
       <c r="D12">
@@ -925,7 +929,7 @@
       <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>1.5</v>
       </c>
       <c r="D13">
@@ -940,15 +944,15 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <f>SUM(C13:C12)</f>
+        <f>SUM(C12,C13)</f>
         <v>0</v>
       </c>
       <c r="D14" s="2">
-        <f>SUM(D13:D12)</f>
+        <f>SUM(D12,D13)</f>
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <f>SUM(E13:E12)</f>
+        <f>SUM(E12,E13)</f>
         <v>0</v>
       </c>
     </row>
@@ -972,8 +976,9 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="B19">
-        <v>143.5</v>
+      <c r="B19" s="2">
+        <f>SUM(C26)</f>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>213</v>
@@ -1025,7 +1030,7 @@
       <c r="B26" t="s">
         <v>38</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>143.5</v>
       </c>
       <c r="D26">
@@ -1040,15 +1045,15 @@
         <v>34</v>
       </c>
       <c r="C27" s="2">
-        <f>SUM(C26:C26)</f>
+        <f>SUM(C26)</f>
         <v>0</v>
       </c>
       <c r="D27" s="2">
-        <f>SUM(D26:D26)</f>
+        <f>SUM(D26)</f>
         <v>0</v>
       </c>
       <c r="E27" s="2">
-        <f>SUM(E26:E26)</f>
+        <f>SUM(E26)</f>
         <v>0</v>
       </c>
     </row>
@@ -1072,8 +1077,9 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="B32">
-        <v>35</v>
+      <c r="B32" s="2">
+        <f>SUM(C39)</f>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>199</v>
@@ -1125,7 +1131,7 @@
       <c r="B39" t="s">
         <v>41</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
         <v>35</v>
       </c>
       <c r="D39">
@@ -1140,15 +1146,15 @@
         <v>34</v>
       </c>
       <c r="C40" s="2">
-        <f>SUM(C39:C39)</f>
+        <f>SUM(C39)</f>
         <v>0</v>
       </c>
       <c r="D40" s="2">
-        <f>SUM(D39:D39)</f>
+        <f>SUM(D39)</f>
         <v>0</v>
       </c>
       <c r="E40" s="2">
-        <f>SUM(E39:E39)</f>
+        <f>SUM(E39)</f>
         <v>0</v>
       </c>
     </row>
@@ -1172,8 +1178,9 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="B45">
-        <v>145.02</v>
+      <c r="B45" s="2">
+        <f>SUM(C52)</f>
+        <v>0</v>
       </c>
       <c r="C45">
         <v>190</v>
@@ -1225,7 +1232,7 @@
       <c r="B52" t="s">
         <v>44</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="3">
         <v>145.02</v>
       </c>
       <c r="D52">
@@ -1240,15 +1247,15 @@
         <v>34</v>
       </c>
       <c r="C53" s="2">
-        <f>SUM(C52:C52)</f>
+        <f>SUM(C52)</f>
         <v>0</v>
       </c>
       <c r="D53" s="2">
-        <f>SUM(D52:D52)</f>
+        <f>SUM(D52)</f>
         <v>0</v>
       </c>
       <c r="E53" s="2">
-        <f>SUM(E52:E52)</f>
+        <f>SUM(E52)</f>
         <v>0</v>
       </c>
     </row>
@@ -1272,8 +1279,9 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="B58">
-        <v>154.5</v>
+      <c r="B58" s="2">
+        <f>SUM(C65)</f>
+        <v>0</v>
       </c>
       <c r="C58">
         <v>194</v>
@@ -1325,7 +1333,7 @@
       <c r="B65" t="s">
         <v>47</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="3">
         <v>154.5</v>
       </c>
       <c r="D65">
@@ -1340,15 +1348,15 @@
         <v>34</v>
       </c>
       <c r="C66" s="2">
-        <f>SUM(C65:C65)</f>
+        <f>SUM(C65)</f>
         <v>0</v>
       </c>
       <c r="D66" s="2">
-        <f>SUM(D65:D65)</f>
+        <f>SUM(D65)</f>
         <v>0</v>
       </c>
       <c r="E66" s="2">
-        <f>SUM(E65:E65)</f>
+        <f>SUM(E65)</f>
         <v>0</v>
       </c>
     </row>
@@ -1372,8 +1380,9 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="B71">
-        <v>449</v>
+      <c r="B71" s="2">
+        <f>SUM(C78,C79)</f>
+        <v>0</v>
       </c>
       <c r="C71">
         <v>198</v>
@@ -1425,7 +1434,7 @@
       <c r="B78" t="s">
         <v>50</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="3">
         <v>309</v>
       </c>
       <c r="D78">
@@ -1439,7 +1448,7 @@
       <c r="B79" t="s">
         <v>51</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="3">
         <v>140</v>
       </c>
       <c r="D79">
@@ -1454,15 +1463,15 @@
         <v>34</v>
       </c>
       <c r="C80" s="2">
-        <f>SUM(C79:C78)</f>
+        <f>SUM(C78,C79)</f>
         <v>0</v>
       </c>
       <c r="D80" s="2">
-        <f>SUM(D79:D78)</f>
+        <f>SUM(D78,D79)</f>
         <v>0</v>
       </c>
       <c r="E80" s="2">
-        <f>SUM(E79:E78)</f>
+        <f>SUM(E78,E79)</f>
         <v>0</v>
       </c>
     </row>
@@ -1486,8 +1495,9 @@
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="B85">
-        <v>305.24</v>
+      <c r="B85" s="2">
+        <f>SUM(C92,C93,C94)</f>
+        <v>0</v>
       </c>
       <c r="C85">
         <v>192</v>
@@ -1539,7 +1549,7 @@
       <c r="B92" t="s">
         <v>54</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="3">
         <v>128.1</v>
       </c>
       <c r="D92">
@@ -1553,7 +1563,7 @@
       <c r="B93" t="s">
         <v>55</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="3">
         <v>53.64</v>
       </c>
       <c r="D93">
@@ -1567,7 +1577,7 @@
       <c r="B94" t="s">
         <v>56</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="3">
         <v>123.5</v>
       </c>
       <c r="D94">
@@ -1582,15 +1592,15 @@
         <v>34</v>
       </c>
       <c r="C95" s="2">
-        <f>SUM(C94:C92)</f>
+        <f>SUM(C92,C93,C94)</f>
         <v>0</v>
       </c>
       <c r="D95" s="2">
-        <f>SUM(D94:D92)</f>
+        <f>SUM(D92,D93,D94)</f>
         <v>0</v>
       </c>
       <c r="E95" s="2">
-        <f>SUM(E94:E92)</f>
+        <f>SUM(E92,E93,E94)</f>
         <v>0</v>
       </c>
     </row>
@@ -1614,8 +1624,9 @@
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="B100">
-        <v>486.73</v>
+      <c r="B100" s="2">
+        <f>SUM(C107,C108,C109)</f>
+        <v>0</v>
       </c>
       <c r="C100">
         <v>177</v>
@@ -1667,7 +1678,7 @@
       <c r="B107" t="s">
         <v>59</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="3">
         <v>280.88</v>
       </c>
       <c r="D107">
@@ -1681,7 +1692,7 @@
       <c r="B108" t="s">
         <v>60</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="3">
         <v>73.85</v>
       </c>
       <c r="D108">
@@ -1695,7 +1706,7 @@
       <c r="B109" t="s">
         <v>61</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="3">
         <v>132</v>
       </c>
       <c r="D109">
@@ -1710,15 +1721,15 @@
         <v>34</v>
       </c>
       <c r="C110" s="2">
-        <f>SUM(C109:C107)</f>
+        <f>SUM(C107,C108,C109)</f>
         <v>0</v>
       </c>
       <c r="D110" s="2">
-        <f>SUM(D109:D107)</f>
+        <f>SUM(D107,D108,D109)</f>
         <v>0</v>
       </c>
       <c r="E110" s="2">
-        <f>SUM(E109:E107)</f>
+        <f>SUM(E107,E108,E109)</f>
         <v>0</v>
       </c>
     </row>
@@ -1742,8 +1753,9 @@
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="B115">
-        <v>668.2</v>
+      <c r="B115" s="2">
+        <f>SUM(C122,C123,C124,C125,C126,C127)</f>
+        <v>0</v>
       </c>
       <c r="C115">
         <v>200</v>
@@ -1795,7 +1807,7 @@
       <c r="B122" t="s">
         <v>65</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="3">
         <v>70</v>
       </c>
       <c r="D122">
@@ -1809,7 +1821,7 @@
       <c r="B123" t="s">
         <v>66</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="3">
         <v>147</v>
       </c>
       <c r="D123">
@@ -1823,7 +1835,7 @@
       <c r="B124" t="s">
         <v>67</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="3">
         <v>214</v>
       </c>
       <c r="D124">
@@ -1837,7 +1849,7 @@
       <c r="B125" t="s">
         <v>68</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="3">
         <v>183</v>
       </c>
       <c r="D125">
@@ -1851,7 +1863,7 @@
       <c r="B126" t="s">
         <v>69</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="3">
         <v>3</v>
       </c>
       <c r="D126">
@@ -1865,7 +1877,7 @@
       <c r="B127" t="s">
         <v>70</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="3">
         <v>51.2</v>
       </c>
       <c r="D127">
@@ -1880,15 +1892,15 @@
         <v>34</v>
       </c>
       <c r="C128" s="2">
-        <f>SUM(C127:C122)</f>
+        <f>SUM(C122,C123,C124,C125,C126,C127)</f>
         <v>0</v>
       </c>
       <c r="D128" s="2">
-        <f>SUM(D127:D122)</f>
+        <f>SUM(D122,D123,D124,D125,D126,D127)</f>
         <v>0</v>
       </c>
       <c r="E128" s="2">
-        <f>SUM(E127:E122)</f>
+        <f>SUM(E122,E123,E124,E125,E126,E127)</f>
         <v>0</v>
       </c>
     </row>
@@ -1912,8 +1924,9 @@
       </c>
     </row>
     <row r="133" spans="1:5">
-      <c r="B133">
-        <v>147.2</v>
+      <c r="B133" s="2">
+        <f>SUM(C140)</f>
+        <v>0</v>
       </c>
       <c r="C133">
         <v>216</v>
@@ -1965,7 +1978,7 @@
       <c r="B140" t="s">
         <v>73</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="3">
         <v>147.2</v>
       </c>
       <c r="D140">
@@ -1980,15 +1993,15 @@
         <v>34</v>
       </c>
       <c r="C141" s="2">
-        <f>SUM(C140:C140)</f>
+        <f>SUM(C140)</f>
         <v>0</v>
       </c>
       <c r="D141" s="2">
-        <f>SUM(D140:D140)</f>
+        <f>SUM(D140)</f>
         <v>0</v>
       </c>
       <c r="E141" s="2">
-        <f>SUM(E140:E140)</f>
+        <f>SUM(E140)</f>
         <v>0</v>
       </c>
     </row>
@@ -2012,8 +2025,9 @@
       </c>
     </row>
     <row r="146" spans="1:5">
-      <c r="B146">
-        <v>137.6</v>
+      <c r="B146" s="2">
+        <f>SUM(C153)</f>
+        <v>0</v>
       </c>
       <c r="C146">
         <v>198</v>
@@ -2065,7 +2079,7 @@
       <c r="B153" t="s">
         <v>75</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="3">
         <v>137.6</v>
       </c>
       <c r="D153">
@@ -2080,15 +2094,15 @@
         <v>34</v>
       </c>
       <c r="C154" s="2">
-        <f>SUM(C153:C153)</f>
+        <f>SUM(C153)</f>
         <v>0</v>
       </c>
       <c r="D154" s="2">
-        <f>SUM(D153:D153)</f>
+        <f>SUM(D153)</f>
         <v>0</v>
       </c>
       <c r="E154" s="2">
-        <f>SUM(E153:E153)</f>
+        <f>SUM(E153)</f>
         <v>0</v>
       </c>
     </row>
@@ -2112,8 +2126,9 @@
       </c>
     </row>
     <row r="159" spans="1:5">
-      <c r="B159">
-        <v>134.5</v>
+      <c r="B159" s="2">
+        <f>SUM(C166)</f>
+        <v>0</v>
       </c>
       <c r="C159">
         <v>200</v>
@@ -2165,7 +2180,7 @@
       <c r="B166" t="s">
         <v>77</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="3">
         <v>134.5</v>
       </c>
       <c r="D166">
@@ -2180,15 +2195,15 @@
         <v>34</v>
       </c>
       <c r="C167" s="2">
-        <f>SUM(C166:C166)</f>
+        <f>SUM(C166)</f>
         <v>0</v>
       </c>
       <c r="D167" s="2">
-        <f>SUM(D166:D166)</f>
+        <f>SUM(D166)</f>
         <v>0</v>
       </c>
       <c r="E167" s="2">
-        <f>SUM(E166:E166)</f>
+        <f>SUM(E166)</f>
         <v>0</v>
       </c>
     </row>
@@ -2242,8 +2257,9 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5">
-        <v>84.1</v>
+      <c r="B5" s="2">
+        <f>SUM(C12,C13)</f>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>236.4</v>
@@ -2307,7 +2323,7 @@
       <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>82.6</v>
       </c>
       <c r="D12">
@@ -2321,7 +2337,7 @@
       <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>1.5</v>
       </c>
       <c r="D13">
@@ -2336,15 +2352,15 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <f>SUM(C13:C12)</f>
+        <f>SUM(C12,C13)</f>
         <v>0</v>
       </c>
       <c r="D14" s="2">
-        <f>SUM(D13:D12)</f>
+        <f>SUM(D12,D13)</f>
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <f>SUM(E13:E12)</f>
+        <f>SUM(E12,E13)</f>
         <v>0</v>
       </c>
     </row>
@@ -2368,8 +2384,9 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="B19">
-        <v>143.5</v>
+      <c r="B19" s="2">
+        <f>SUM(C26)</f>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>255.6</v>
@@ -2433,7 +2450,7 @@
       <c r="B26" t="s">
         <v>38</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>143.5</v>
       </c>
       <c r="D26">
@@ -2448,15 +2465,15 @@
         <v>34</v>
       </c>
       <c r="C27" s="2">
-        <f>SUM(C26:C26)</f>
+        <f>SUM(C26)</f>
         <v>0</v>
       </c>
       <c r="D27" s="2">
-        <f>SUM(D26:D26)</f>
+        <f>SUM(D26)</f>
         <v>0</v>
       </c>
       <c r="E27" s="2">
-        <f>SUM(E26:E26)</f>
+        <f>SUM(E26)</f>
         <v>0</v>
       </c>
     </row>
@@ -2480,8 +2497,9 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="B32">
-        <v>35</v>
+      <c r="B32" s="2">
+        <f>SUM(C39)</f>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>238.8</v>
@@ -2545,7 +2563,7 @@
       <c r="B39" t="s">
         <v>41</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
         <v>35</v>
       </c>
       <c r="D39">
@@ -2560,15 +2578,15 @@
         <v>34</v>
       </c>
       <c r="C40" s="2">
-        <f>SUM(C39:C39)</f>
+        <f>SUM(C39)</f>
         <v>0</v>
       </c>
       <c r="D40" s="2">
-        <f>SUM(D39:D39)</f>
+        <f>SUM(D39)</f>
         <v>0</v>
       </c>
       <c r="E40" s="2">
-        <f>SUM(E39:E39)</f>
+        <f>SUM(E39)</f>
         <v>0</v>
       </c>
     </row>
@@ -2592,8 +2610,9 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="B45">
-        <v>145.02</v>
+      <c r="B45" s="2">
+        <f>SUM(C52)</f>
+        <v>0</v>
       </c>
       <c r="C45">
         <v>228</v>
@@ -2657,7 +2676,7 @@
       <c r="B52" t="s">
         <v>44</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="3">
         <v>145.02</v>
       </c>
       <c r="D52">
@@ -2672,15 +2691,15 @@
         <v>34</v>
       </c>
       <c r="C53" s="2">
-        <f>SUM(C52:C52)</f>
+        <f>SUM(C52)</f>
         <v>0</v>
       </c>
       <c r="D53" s="2">
-        <f>SUM(D52:D52)</f>
+        <f>SUM(D52)</f>
         <v>0</v>
       </c>
       <c r="E53" s="2">
-        <f>SUM(E52:E52)</f>
+        <f>SUM(E52)</f>
         <v>0</v>
       </c>
     </row>
@@ -2704,8 +2723,9 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="B58">
-        <v>154.5</v>
+      <c r="B58" s="2">
+        <f>SUM(C65)</f>
+        <v>0</v>
       </c>
       <c r="C58">
         <v>232.8</v>
@@ -2769,7 +2789,7 @@
       <c r="B65" t="s">
         <v>47</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="3">
         <v>154.5</v>
       </c>
       <c r="D65">
@@ -2784,15 +2804,15 @@
         <v>34</v>
       </c>
       <c r="C66" s="2">
-        <f>SUM(C65:C65)</f>
+        <f>SUM(C65)</f>
         <v>0</v>
       </c>
       <c r="D66" s="2">
-        <f>SUM(D65:D65)</f>
+        <f>SUM(D65)</f>
         <v>0</v>
       </c>
       <c r="E66" s="2">
-        <f>SUM(E65:E65)</f>
+        <f>SUM(E65)</f>
         <v>0</v>
       </c>
     </row>
@@ -2816,8 +2836,9 @@
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="B71">
-        <v>449</v>
+      <c r="B71" s="2">
+        <f>SUM(C78,C79)</f>
+        <v>0</v>
       </c>
       <c r="C71">
         <v>237.6</v>
@@ -2881,7 +2902,7 @@
       <c r="B78" t="s">
         <v>50</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="3">
         <v>309</v>
       </c>
       <c r="D78">
@@ -2895,7 +2916,7 @@
       <c r="B79" t="s">
         <v>51</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="3">
         <v>140</v>
       </c>
       <c r="D79">
@@ -2910,15 +2931,15 @@
         <v>34</v>
       </c>
       <c r="C80" s="2">
-        <f>SUM(C79:C78)</f>
+        <f>SUM(C78,C79)</f>
         <v>0</v>
       </c>
       <c r="D80" s="2">
-        <f>SUM(D79:D78)</f>
+        <f>SUM(D78,D79)</f>
         <v>0</v>
       </c>
       <c r="E80" s="2">
-        <f>SUM(E79:E78)</f>
+        <f>SUM(E78,E79)</f>
         <v>0</v>
       </c>
     </row>
@@ -2942,8 +2963,9 @@
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="B85">
-        <v>305.24</v>
+      <c r="B85" s="2">
+        <f>SUM(C92,C93,C94)</f>
+        <v>0</v>
       </c>
       <c r="C85">
         <v>230.4</v>
@@ -3007,7 +3029,7 @@
       <c r="B92" t="s">
         <v>54</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="3">
         <v>128.1</v>
       </c>
       <c r="D92">
@@ -3021,7 +3043,7 @@
       <c r="B93" t="s">
         <v>55</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="3">
         <v>53.64</v>
       </c>
       <c r="D93">
@@ -3035,7 +3057,7 @@
       <c r="B94" t="s">
         <v>56</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="3">
         <v>123.5</v>
       </c>
       <c r="D94">
@@ -3050,15 +3072,15 @@
         <v>34</v>
       </c>
       <c r="C95" s="2">
-        <f>SUM(C94:C92)</f>
+        <f>SUM(C92,C93,C94)</f>
         <v>0</v>
       </c>
       <c r="D95" s="2">
-        <f>SUM(D94:D92)</f>
+        <f>SUM(D92,D93,D94)</f>
         <v>0</v>
       </c>
       <c r="E95" s="2">
-        <f>SUM(E94:E92)</f>
+        <f>SUM(E92,E93,E94)</f>
         <v>0</v>
       </c>
     </row>
@@ -3082,8 +3104,9 @@
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="B100">
-        <v>486.73</v>
+      <c r="B100" s="2">
+        <f>SUM(C107,C108,C109)</f>
+        <v>0</v>
       </c>
       <c r="C100">
         <v>212.4</v>
@@ -3147,7 +3170,7 @@
       <c r="B107" t="s">
         <v>59</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="3">
         <v>280.88</v>
       </c>
       <c r="D107">
@@ -3161,7 +3184,7 @@
       <c r="B108" t="s">
         <v>60</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="3">
         <v>73.85</v>
       </c>
       <c r="D108">
@@ -3175,7 +3198,7 @@
       <c r="B109" t="s">
         <v>61</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="3">
         <v>132</v>
       </c>
       <c r="D109">
@@ -3190,15 +3213,15 @@
         <v>34</v>
       </c>
       <c r="C110" s="2">
-        <f>SUM(C109:C107)</f>
+        <f>SUM(C107,C108,C109)</f>
         <v>0</v>
       </c>
       <c r="D110" s="2">
-        <f>SUM(D109:D107)</f>
+        <f>SUM(D107,D108,D109)</f>
         <v>0</v>
       </c>
       <c r="E110" s="2">
-        <f>SUM(E109:E107)</f>
+        <f>SUM(E107,E108,E109)</f>
         <v>0</v>
       </c>
     </row>
@@ -3222,8 +3245,9 @@
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="B115">
-        <v>668.2</v>
+      <c r="B115" s="2">
+        <f>SUM(C122,C123,C124,C125,C126,C127)</f>
+        <v>0</v>
       </c>
       <c r="C115">
         <v>240</v>
@@ -3287,7 +3311,7 @@
       <c r="B122" t="s">
         <v>65</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="3">
         <v>70</v>
       </c>
       <c r="D122">
@@ -3301,7 +3325,7 @@
       <c r="B123" t="s">
         <v>66</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="3">
         <v>147</v>
       </c>
       <c r="D123">
@@ -3315,7 +3339,7 @@
       <c r="B124" t="s">
         <v>67</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="3">
         <v>214</v>
       </c>
       <c r="D124">
@@ -3329,7 +3353,7 @@
       <c r="B125" t="s">
         <v>68</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="3">
         <v>183</v>
       </c>
       <c r="D125">
@@ -3343,7 +3367,7 @@
       <c r="B126" t="s">
         <v>69</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="3">
         <v>3</v>
       </c>
       <c r="D126">
@@ -3357,7 +3381,7 @@
       <c r="B127" t="s">
         <v>70</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="3">
         <v>51.2</v>
       </c>
       <c r="D127">
@@ -3372,15 +3396,15 @@
         <v>34</v>
       </c>
       <c r="C128" s="2">
-        <f>SUM(C127:C122)</f>
+        <f>SUM(C122,C123,C124,C125,C126,C127)</f>
         <v>0</v>
       </c>
       <c r="D128" s="2">
-        <f>SUM(D127:D122)</f>
+        <f>SUM(D122,D123,D124,D125,D126,D127)</f>
         <v>0</v>
       </c>
       <c r="E128" s="2">
-        <f>SUM(E127:E122)</f>
+        <f>SUM(E122,E123,E124,E125,E126,E127)</f>
         <v>0</v>
       </c>
     </row>
@@ -3404,8 +3428,9 @@
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="B133">
-        <v>147.2</v>
+      <c r="B133" s="2">
+        <f>SUM(C140)</f>
+        <v>0</v>
       </c>
       <c r="C133">
         <v>259.2</v>
@@ -3469,7 +3494,7 @@
       <c r="B140" t="s">
         <v>73</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="3">
         <v>147.2</v>
       </c>
       <c r="D140">
@@ -3484,15 +3509,15 @@
         <v>34</v>
       </c>
       <c r="C141" s="2">
-        <f>SUM(C140:C140)</f>
+        <f>SUM(C140)</f>
         <v>0</v>
       </c>
       <c r="D141" s="2">
-        <f>SUM(D140:D140)</f>
+        <f>SUM(D140)</f>
         <v>0</v>
       </c>
       <c r="E141" s="2">
-        <f>SUM(E140:E140)</f>
+        <f>SUM(E140)</f>
         <v>0</v>
       </c>
     </row>
@@ -3516,8 +3541,9 @@
       </c>
     </row>
     <row r="146" spans="1:6">
-      <c r="B146">
-        <v>137.6</v>
+      <c r="B146" s="2">
+        <f>SUM(C153)</f>
+        <v>0</v>
       </c>
       <c r="C146">
         <v>237.6</v>
@@ -3581,7 +3607,7 @@
       <c r="B153" t="s">
         <v>75</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="3">
         <v>137.6</v>
       </c>
       <c r="D153">
@@ -3596,15 +3622,15 @@
         <v>34</v>
       </c>
       <c r="C154" s="2">
-        <f>SUM(C153:C153)</f>
+        <f>SUM(C153)</f>
         <v>0</v>
       </c>
       <c r="D154" s="2">
-        <f>SUM(D153:D153)</f>
+        <f>SUM(D153)</f>
         <v>0</v>
       </c>
       <c r="E154" s="2">
-        <f>SUM(E153:E153)</f>
+        <f>SUM(E153)</f>
         <v>0</v>
       </c>
     </row>
@@ -3628,8 +3654,9 @@
       </c>
     </row>
     <row r="159" spans="1:6">
-      <c r="B159">
-        <v>134.5</v>
+      <c r="B159" s="2">
+        <f>SUM(C166)</f>
+        <v>0</v>
       </c>
       <c r="C159">
         <v>240</v>
@@ -3693,7 +3720,7 @@
       <c r="B166" t="s">
         <v>77</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="3">
         <v>134.5</v>
       </c>
       <c r="D166">
@@ -3708,15 +3735,15 @@
         <v>34</v>
       </c>
       <c r="C167" s="2">
-        <f>SUM(C166:C166)</f>
+        <f>SUM(C166)</f>
         <v>0</v>
       </c>
       <c r="D167" s="2">
-        <f>SUM(D166:D166)</f>
+        <f>SUM(D166)</f>
         <v>0</v>
       </c>
       <c r="E167" s="2">
-        <f>SUM(E166:E166)</f>
+        <f>SUM(E166)</f>
         <v>0</v>
       </c>
     </row>
